--- a/excel_upload/test-excel-contacts.xlsx
+++ b/excel_upload/test-excel-contacts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patil\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83D92E47-311A-4B35-8395-B52BF12471F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AF3956-4C05-428A-AC25-E2D64819A9DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE8B9D47-F78D-41A0-95BB-DCD1AB40AF1B}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{AE8B9D47-F78D-41A0-95BB-DCD1AB40AF1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>First Name</t>
   </si>
@@ -39,31 +39,19 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Kaustubh</t>
-  </si>
-  <si>
-    <t>Wakhare</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
     <t>Mobile</t>
   </si>
   <si>
     <t>Phone Number</t>
   </si>
   <si>
-    <t>Laxman</t>
-  </si>
-  <si>
-    <t>Surve</t>
-  </si>
-  <si>
-    <t>Suraj</t>
-  </si>
-  <si>
-    <t>Joshi</t>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Purcell</t>
+  </si>
+  <si>
+    <t>ABC</t>
   </si>
 </sst>
 </file>
@@ -426,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6518694D-EE61-4055-A052-F39AED5252D5}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +439,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -459,53 +447,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>12153269570</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
-        <v>919860538505</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>917559179497</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1">
-        <v>917276274367</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/excel_upload/test-excel-contacts.xlsx
+++ b/excel_upload/test-excel-contacts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patil\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AF3956-4C05-428A-AC25-E2D64819A9DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA695C2A-FCCD-48D2-B5FA-EEF883CFA9A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{AE8B9D47-F78D-41A0-95BB-DCD1AB40AF1B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE8B9D47-F78D-41A0-95BB-DCD1AB40AF1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,13 +45,13 @@
     <t>Phone Number</t>
   </si>
   <si>
-    <t>Chris</t>
-  </si>
-  <si>
     <t>Purcell</t>
   </si>
   <si>
     <t>ABC</t>
+  </si>
+  <si>
+    <t>Ch</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,16 +447,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="1">
-        <v>12153269570</v>
+        <v>12153524444</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
